--- a/param_tested.xlsx
+++ b/param_tested.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42BBDCAD-DDF4-4CDF-B56D-1B9FE7A4577D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E37E758-B3B4-417B-BDD9-F9D775CCCA99}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5628" yWindow="2148" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="金属件孔洞检测参数记录" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
   <si>
     <t>霍夫变换圆检测参数</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -79,6 +79,114 @@
   </si>
   <si>
     <t>第二小小圆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>摄像机内参，opencv，Samsung S10 Ultrawide</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>main</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UltraWide</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Telephoto</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mpix</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PixSize</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.4μ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.0μ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image Size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4608*3456</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4032*3024</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Real Focal Length</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equivalent Focal Length</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sensor Size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.954*4.465</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.985*3.738</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.154*3.115</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意，两种计算方法所得的传感器尺寸并不相同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/3.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/3.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/2.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>format</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Format Size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.8*3.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.8*4.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.1*3.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MATLAB</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -110,7 +218,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -118,13 +226,178 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -407,17 +680,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.88671875" customWidth="1"/>
-    <col min="2" max="2" width="17.77734375" customWidth="1"/>
-    <col min="3" max="5" width="20.77734375" customWidth="1"/>
+    <col min="2" max="2" width="5" customWidth="1"/>
+    <col min="3" max="3" width="9.77734375" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" customWidth="1"/>
+    <col min="6" max="6" width="11.109375" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" customWidth="1"/>
+    <col min="9" max="9" width="12.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -441,20 +719,20 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -560,9 +838,209 @@
         <v>60</v>
       </c>
     </row>
+    <row r="15" spans="1:5" s="3" customFormat="1" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
+        <v>1617.75679673267</v>
+      </c>
+      <c r="B16" s="7">
+        <v>0</v>
+      </c>
+      <c r="C16" s="8">
+        <v>1651.7709149893701</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="9">
+        <v>0</v>
+      </c>
+      <c r="B17" s="5">
+        <v>1618.1388635429801</v>
+      </c>
+      <c r="C17" s="10">
+        <v>1307.5123718586999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="11">
+        <v>0</v>
+      </c>
+      <c r="B18" s="12">
+        <v>0</v>
+      </c>
+      <c r="C18" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
+        <v>1356.57811429046</v>
+      </c>
+      <c r="B20" s="7">
+        <v>0</v>
+      </c>
+      <c r="C20" s="8">
+        <v>1743.8463696511801</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="9">
+        <v>0</v>
+      </c>
+      <c r="B21" s="5">
+        <v>1357.0785197595401</v>
+      </c>
+      <c r="C21" s="10">
+        <v>1313.6364779493999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="11">
+        <v>0</v>
+      </c>
+      <c r="B22" s="12">
+        <v>0</v>
+      </c>
+      <c r="C22" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F24" t="s">
+        <v>23</v>
+      </c>
+      <c r="G24" t="s">
+        <v>28</v>
+      </c>
+      <c r="H24" t="s">
+        <v>36</v>
+      </c>
+      <c r="I24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25">
+        <v>16</v>
+      </c>
+      <c r="C25" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25">
+        <v>13</v>
+      </c>
+      <c r="E25">
+        <v>1.8</v>
+      </c>
+      <c r="F25" t="s">
+        <v>24</v>
+      </c>
+      <c r="G25" t="s">
+        <v>30</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I25" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26">
+        <v>12</v>
+      </c>
+      <c r="C26" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26">
+        <v>26</v>
+      </c>
+      <c r="E26">
+        <v>4.3</v>
+      </c>
+      <c r="F26" t="s">
+        <v>25</v>
+      </c>
+      <c r="G26" t="s">
+        <v>29</v>
+      </c>
+      <c r="H26" t="s">
+        <v>35</v>
+      </c>
+      <c r="I26" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27">
+        <v>12</v>
+      </c>
+      <c r="C27" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27">
+        <v>52</v>
+      </c>
+      <c r="E27">
+        <v>6</v>
+      </c>
+      <c r="F27" t="s">
+        <v>25</v>
+      </c>
+      <c r="G27" t="s">
+        <v>31</v>
+      </c>
+      <c r="H27" t="s">
+        <v>33</v>
+      </c>
+      <c r="I27" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G28" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A19:C19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
